--- a/data/outputs/OR/33.xlsx
+++ b/data/outputs/OR/33.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ43"/>
+  <dimension ref="A1:BR43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -929,6 +934,11 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>2849689</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1148,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1347,6 +1358,11 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>40858154</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1564,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>4812855</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1753,6 +1774,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1962,6 +1984,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2179,6 +2202,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2380,6 +2404,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2601,6 +2626,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2806,6 +2832,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>10768433</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3023,6 +3054,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3240,6 +3272,11 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>3726668</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3441,6 +3478,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3650,6 +3688,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3859,6 +3898,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4064,6 +4104,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4277,6 +4318,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4494,6 +4536,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4695,6 +4738,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4896,6 +4940,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5097,6 +5142,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5314,6 +5360,11 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>2876583</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5531,6 +5582,11 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>4448625</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5732,6 +5788,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5945,6 +6002,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6150,6 +6208,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6359,6 +6418,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>4308896</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6560,6 +6624,11 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>4361596</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6773,6 +6842,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6974,6 +7044,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7179,6 +7250,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7388,6 +7460,11 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr">
+        <is>
+          <t>3941906</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7597,6 +7674,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7806,6 +7884,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8015,6 +8094,11 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr">
+        <is>
+          <t>4385371</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8232,6 +8316,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>3949046</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8429,6 +8518,11 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr">
+        <is>
+          <t>3130242</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8630,6 +8724,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4067271</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8839,6 +8938,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9036,6 +9136,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9237,6 +9338,11 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>3746061</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9446,6 +9552,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4409472</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
